--- a/test_data/dj-specs-test.xlsx
+++ b/test_data/dj-specs-test.xlsx
@@ -14,6 +14,12 @@
     <sheet name="SpecsDataCalib2" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="SpecsDataCalib3" sheetId="7" state="visible" r:id="rId7"/>
     <sheet name="SpecsDataCalib4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="SpecsDataCalib5" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="SpecsDataCalib6" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="SpecsDataCalib7" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="SpecsDataCalib8" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="SpecsDataCalib9" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="SpecsDataCalib10" sheetId="14" state="visible" r:id="rId14"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -488,6 +494,1127 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Y2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="5" t="inlineStr">
+        <is>
+          <t>Country</t>
+        </is>
+      </c>
+      <c r="B1" s="5" t="inlineStr">
+        <is>
+          <t>CountryCode</t>
+        </is>
+      </c>
+      <c r="C1" s="5" t="inlineStr">
+        <is>
+          <t>StartYear</t>
+        </is>
+      </c>
+      <c r="D1" s="5" t="inlineStr">
+        <is>
+          <t>EndYEar</t>
+        </is>
+      </c>
+      <c r="E1" s="5" t="inlineStr">
+        <is>
+          <t>PopStartYear</t>
+        </is>
+      </c>
+      <c r="F1" s="5" t="inlineStr">
+        <is>
+          <t>UrbanRatioStartYear</t>
+        </is>
+      </c>
+      <c r="G1" s="5" t="inlineStr">
+        <is>
+          <t>UrbanCutOff</t>
+        </is>
+      </c>
+      <c r="H1" s="5" t="inlineStr">
+        <is>
+          <t>UrbanRatioModelled</t>
+        </is>
+      </c>
+      <c r="I1" s="5" t="inlineStr">
+        <is>
+          <t>PopEndYearHigh</t>
+        </is>
+      </c>
+      <c r="J1" s="5" t="inlineStr">
+        <is>
+          <t>PopEndYearLow</t>
+        </is>
+      </c>
+      <c r="K1" s="5" t="inlineStr">
+        <is>
+          <t>UrbanRatioEndYear</t>
+        </is>
+      </c>
+      <c r="L1" s="5" t="inlineStr">
+        <is>
+          <t>NumPeoplePerHHRural</t>
+        </is>
+      </c>
+      <c r="M1" s="5" t="inlineStr">
+        <is>
+          <t>NumPeoplePerHHUrban</t>
+        </is>
+      </c>
+      <c r="N1" s="5" t="inlineStr">
+        <is>
+          <t>GridCapacityInvestmentCost</t>
+        </is>
+      </c>
+      <c r="O1" s="5" t="inlineStr">
+        <is>
+          <t>GridLosses</t>
+        </is>
+      </c>
+      <c r="P1" s="5" t="inlineStr">
+        <is>
+          <t>BaseToPeak</t>
+        </is>
+      </c>
+      <c r="Q1" s="5" t="inlineStr">
+        <is>
+          <t>ExistingGridCostRatio</t>
+        </is>
+      </c>
+      <c r="R1" s="5" t="inlineStr">
+        <is>
+          <t>MaxGridExtensionDist</t>
+        </is>
+      </c>
+      <c r="S1" s="5" t="inlineStr">
+        <is>
+          <t>NewGridGenerationCapacityAnnualLimitMW</t>
+        </is>
+      </c>
+      <c r="T1" s="5" t="inlineStr">
+        <is>
+          <t>ElecActual</t>
+        </is>
+      </c>
+      <c r="U1" s="5" t="inlineStr">
+        <is>
+          <t>Rural_elec_ratio</t>
+        </is>
+      </c>
+      <c r="V1" s="5" t="inlineStr">
+        <is>
+          <t>Urban_elec_ratio</t>
+        </is>
+      </c>
+      <c r="W1" s="5" t="inlineStr">
+        <is>
+          <t>ElecModelled</t>
+        </is>
+      </c>
+      <c r="X1" s="5" t="inlineStr">
+        <is>
+          <t>urban_elec_ratio_modelled</t>
+        </is>
+      </c>
+      <c r="Y1" s="5" t="inlineStr">
+        <is>
+          <t>rural_elec_ratio_modelled</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Djibouti</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>dj</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2030</v>
+      </c>
+      <c r="E2" t="n">
+        <v>971000</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.778</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.7681776389247169</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1179150</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1132710</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L2" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="M2" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="N2" t="n">
+        <v>4426</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.083</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="R2" t="n">
+        <v>50</v>
+      </c>
+      <c r="S2" t="n">
+        <v>19</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.7023432968565431</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.2608703674038588</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Y2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="5" t="inlineStr">
+        <is>
+          <t>Country</t>
+        </is>
+      </c>
+      <c r="B1" s="5" t="inlineStr">
+        <is>
+          <t>CountryCode</t>
+        </is>
+      </c>
+      <c r="C1" s="5" t="inlineStr">
+        <is>
+          <t>StartYear</t>
+        </is>
+      </c>
+      <c r="D1" s="5" t="inlineStr">
+        <is>
+          <t>EndYEar</t>
+        </is>
+      </c>
+      <c r="E1" s="5" t="inlineStr">
+        <is>
+          <t>PopStartYear</t>
+        </is>
+      </c>
+      <c r="F1" s="5" t="inlineStr">
+        <is>
+          <t>UrbanRatioStartYear</t>
+        </is>
+      </c>
+      <c r="G1" s="5" t="inlineStr">
+        <is>
+          <t>UrbanCutOff</t>
+        </is>
+      </c>
+      <c r="H1" s="5" t="inlineStr">
+        <is>
+          <t>UrbanRatioModelled</t>
+        </is>
+      </c>
+      <c r="I1" s="5" t="inlineStr">
+        <is>
+          <t>PopEndYearHigh</t>
+        </is>
+      </c>
+      <c r="J1" s="5" t="inlineStr">
+        <is>
+          <t>PopEndYearLow</t>
+        </is>
+      </c>
+      <c r="K1" s="5" t="inlineStr">
+        <is>
+          <t>UrbanRatioEndYear</t>
+        </is>
+      </c>
+      <c r="L1" s="5" t="inlineStr">
+        <is>
+          <t>NumPeoplePerHHRural</t>
+        </is>
+      </c>
+      <c r="M1" s="5" t="inlineStr">
+        <is>
+          <t>NumPeoplePerHHUrban</t>
+        </is>
+      </c>
+      <c r="N1" s="5" t="inlineStr">
+        <is>
+          <t>GridCapacityInvestmentCost</t>
+        </is>
+      </c>
+      <c r="O1" s="5" t="inlineStr">
+        <is>
+          <t>GridLosses</t>
+        </is>
+      </c>
+      <c r="P1" s="5" t="inlineStr">
+        <is>
+          <t>BaseToPeak</t>
+        </is>
+      </c>
+      <c r="Q1" s="5" t="inlineStr">
+        <is>
+          <t>ExistingGridCostRatio</t>
+        </is>
+      </c>
+      <c r="R1" s="5" t="inlineStr">
+        <is>
+          <t>MaxGridExtensionDist</t>
+        </is>
+      </c>
+      <c r="S1" s="5" t="inlineStr">
+        <is>
+          <t>NewGridGenerationCapacityAnnualLimitMW</t>
+        </is>
+      </c>
+      <c r="T1" s="5" t="inlineStr">
+        <is>
+          <t>ElecActual</t>
+        </is>
+      </c>
+      <c r="U1" s="5" t="inlineStr">
+        <is>
+          <t>Rural_elec_ratio</t>
+        </is>
+      </c>
+      <c r="V1" s="5" t="inlineStr">
+        <is>
+          <t>Urban_elec_ratio</t>
+        </is>
+      </c>
+      <c r="W1" s="5" t="inlineStr">
+        <is>
+          <t>ElecModelled</t>
+        </is>
+      </c>
+      <c r="X1" s="5" t="inlineStr">
+        <is>
+          <t>urban_elec_ratio_modelled</t>
+        </is>
+      </c>
+      <c r="Y1" s="5" t="inlineStr">
+        <is>
+          <t>rural_elec_ratio_modelled</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Djibouti</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>dj</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2030</v>
+      </c>
+      <c r="E2" t="n">
+        <v>971000</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.778</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.7681776389247169</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1179150</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1132710</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L2" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="M2" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="N2" t="n">
+        <v>4426</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.083</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="R2" t="n">
+        <v>50</v>
+      </c>
+      <c r="S2" t="n">
+        <v>19</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.7023432968565431</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.2608703674038588</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Y2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="5" t="inlineStr">
+        <is>
+          <t>Country</t>
+        </is>
+      </c>
+      <c r="B1" s="5" t="inlineStr">
+        <is>
+          <t>CountryCode</t>
+        </is>
+      </c>
+      <c r="C1" s="5" t="inlineStr">
+        <is>
+          <t>StartYear</t>
+        </is>
+      </c>
+      <c r="D1" s="5" t="inlineStr">
+        <is>
+          <t>EndYEar</t>
+        </is>
+      </c>
+      <c r="E1" s="5" t="inlineStr">
+        <is>
+          <t>PopStartYear</t>
+        </is>
+      </c>
+      <c r="F1" s="5" t="inlineStr">
+        <is>
+          <t>UrbanRatioStartYear</t>
+        </is>
+      </c>
+      <c r="G1" s="5" t="inlineStr">
+        <is>
+          <t>UrbanCutOff</t>
+        </is>
+      </c>
+      <c r="H1" s="5" t="inlineStr">
+        <is>
+          <t>UrbanRatioModelled</t>
+        </is>
+      </c>
+      <c r="I1" s="5" t="inlineStr">
+        <is>
+          <t>PopEndYearHigh</t>
+        </is>
+      </c>
+      <c r="J1" s="5" t="inlineStr">
+        <is>
+          <t>PopEndYearLow</t>
+        </is>
+      </c>
+      <c r="K1" s="5" t="inlineStr">
+        <is>
+          <t>UrbanRatioEndYear</t>
+        </is>
+      </c>
+      <c r="L1" s="5" t="inlineStr">
+        <is>
+          <t>NumPeoplePerHHRural</t>
+        </is>
+      </c>
+      <c r="M1" s="5" t="inlineStr">
+        <is>
+          <t>NumPeoplePerHHUrban</t>
+        </is>
+      </c>
+      <c r="N1" s="5" t="inlineStr">
+        <is>
+          <t>GridCapacityInvestmentCost</t>
+        </is>
+      </c>
+      <c r="O1" s="5" t="inlineStr">
+        <is>
+          <t>GridLosses</t>
+        </is>
+      </c>
+      <c r="P1" s="5" t="inlineStr">
+        <is>
+          <t>BaseToPeak</t>
+        </is>
+      </c>
+      <c r="Q1" s="5" t="inlineStr">
+        <is>
+          <t>ExistingGridCostRatio</t>
+        </is>
+      </c>
+      <c r="R1" s="5" t="inlineStr">
+        <is>
+          <t>MaxGridExtensionDist</t>
+        </is>
+      </c>
+      <c r="S1" s="5" t="inlineStr">
+        <is>
+          <t>NewGridGenerationCapacityAnnualLimitMW</t>
+        </is>
+      </c>
+      <c r="T1" s="5" t="inlineStr">
+        <is>
+          <t>ElecActual</t>
+        </is>
+      </c>
+      <c r="U1" s="5" t="inlineStr">
+        <is>
+          <t>Rural_elec_ratio</t>
+        </is>
+      </c>
+      <c r="V1" s="5" t="inlineStr">
+        <is>
+          <t>Urban_elec_ratio</t>
+        </is>
+      </c>
+      <c r="W1" s="5" t="inlineStr">
+        <is>
+          <t>ElecModelled</t>
+        </is>
+      </c>
+      <c r="X1" s="5" t="inlineStr">
+        <is>
+          <t>urban_elec_ratio_modelled</t>
+        </is>
+      </c>
+      <c r="Y1" s="5" t="inlineStr">
+        <is>
+          <t>rural_elec_ratio_modelled</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Djibouti</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>dj</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2030</v>
+      </c>
+      <c r="E2" t="n">
+        <v>971000</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.778</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.7681776389247169</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1179150</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1132710</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L2" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="M2" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="N2" t="n">
+        <v>4426</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.083</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="R2" t="n">
+        <v>50</v>
+      </c>
+      <c r="S2" t="n">
+        <v>19</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.7023432968565431</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.2608703674038588</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Y2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="5" t="inlineStr">
+        <is>
+          <t>Country</t>
+        </is>
+      </c>
+      <c r="B1" s="5" t="inlineStr">
+        <is>
+          <t>CountryCode</t>
+        </is>
+      </c>
+      <c r="C1" s="5" t="inlineStr">
+        <is>
+          <t>StartYear</t>
+        </is>
+      </c>
+      <c r="D1" s="5" t="inlineStr">
+        <is>
+          <t>EndYEar</t>
+        </is>
+      </c>
+      <c r="E1" s="5" t="inlineStr">
+        <is>
+          <t>PopStartYear</t>
+        </is>
+      </c>
+      <c r="F1" s="5" t="inlineStr">
+        <is>
+          <t>UrbanRatioStartYear</t>
+        </is>
+      </c>
+      <c r="G1" s="5" t="inlineStr">
+        <is>
+          <t>UrbanCutOff</t>
+        </is>
+      </c>
+      <c r="H1" s="5" t="inlineStr">
+        <is>
+          <t>UrbanRatioModelled</t>
+        </is>
+      </c>
+      <c r="I1" s="5" t="inlineStr">
+        <is>
+          <t>PopEndYearHigh</t>
+        </is>
+      </c>
+      <c r="J1" s="5" t="inlineStr">
+        <is>
+          <t>PopEndYearLow</t>
+        </is>
+      </c>
+      <c r="K1" s="5" t="inlineStr">
+        <is>
+          <t>UrbanRatioEndYear</t>
+        </is>
+      </c>
+      <c r="L1" s="5" t="inlineStr">
+        <is>
+          <t>NumPeoplePerHHRural</t>
+        </is>
+      </c>
+      <c r="M1" s="5" t="inlineStr">
+        <is>
+          <t>NumPeoplePerHHUrban</t>
+        </is>
+      </c>
+      <c r="N1" s="5" t="inlineStr">
+        <is>
+          <t>GridCapacityInvestmentCost</t>
+        </is>
+      </c>
+      <c r="O1" s="5" t="inlineStr">
+        <is>
+          <t>GridLosses</t>
+        </is>
+      </c>
+      <c r="P1" s="5" t="inlineStr">
+        <is>
+          <t>BaseToPeak</t>
+        </is>
+      </c>
+      <c r="Q1" s="5" t="inlineStr">
+        <is>
+          <t>ExistingGridCostRatio</t>
+        </is>
+      </c>
+      <c r="R1" s="5" t="inlineStr">
+        <is>
+          <t>MaxGridExtensionDist</t>
+        </is>
+      </c>
+      <c r="S1" s="5" t="inlineStr">
+        <is>
+          <t>NewGridGenerationCapacityAnnualLimitMW</t>
+        </is>
+      </c>
+      <c r="T1" s="5" t="inlineStr">
+        <is>
+          <t>ElecActual</t>
+        </is>
+      </c>
+      <c r="U1" s="5" t="inlineStr">
+        <is>
+          <t>Rural_elec_ratio</t>
+        </is>
+      </c>
+      <c r="V1" s="5" t="inlineStr">
+        <is>
+          <t>Urban_elec_ratio</t>
+        </is>
+      </c>
+      <c r="W1" s="5" t="inlineStr">
+        <is>
+          <t>ElecModelled</t>
+        </is>
+      </c>
+      <c r="X1" s="5" t="inlineStr">
+        <is>
+          <t>urban_elec_ratio_modelled</t>
+        </is>
+      </c>
+      <c r="Y1" s="5" t="inlineStr">
+        <is>
+          <t>rural_elec_ratio_modelled</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Djibouti</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>dj</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2030</v>
+      </c>
+      <c r="E2" t="n">
+        <v>971000</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.778</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.7681776389247169</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1179150</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1132710</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L2" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="M2" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="N2" t="n">
+        <v>4426</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.083</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="R2" t="n">
+        <v>50</v>
+      </c>
+      <c r="S2" t="n">
+        <v>19</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.7023432968565431</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.2608703674038588</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Y2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="5" t="inlineStr">
+        <is>
+          <t>Country</t>
+        </is>
+      </c>
+      <c r="B1" s="5" t="inlineStr">
+        <is>
+          <t>CountryCode</t>
+        </is>
+      </c>
+      <c r="C1" s="5" t="inlineStr">
+        <is>
+          <t>StartYear</t>
+        </is>
+      </c>
+      <c r="D1" s="5" t="inlineStr">
+        <is>
+          <t>EndYEar</t>
+        </is>
+      </c>
+      <c r="E1" s="5" t="inlineStr">
+        <is>
+          <t>PopStartYear</t>
+        </is>
+      </c>
+      <c r="F1" s="5" t="inlineStr">
+        <is>
+          <t>UrbanRatioStartYear</t>
+        </is>
+      </c>
+      <c r="G1" s="5" t="inlineStr">
+        <is>
+          <t>UrbanCutOff</t>
+        </is>
+      </c>
+      <c r="H1" s="5" t="inlineStr">
+        <is>
+          <t>UrbanRatioModelled</t>
+        </is>
+      </c>
+      <c r="I1" s="5" t="inlineStr">
+        <is>
+          <t>PopEndYearHigh</t>
+        </is>
+      </c>
+      <c r="J1" s="5" t="inlineStr">
+        <is>
+          <t>PopEndYearLow</t>
+        </is>
+      </c>
+      <c r="K1" s="5" t="inlineStr">
+        <is>
+          <t>UrbanRatioEndYear</t>
+        </is>
+      </c>
+      <c r="L1" s="5" t="inlineStr">
+        <is>
+          <t>NumPeoplePerHHRural</t>
+        </is>
+      </c>
+      <c r="M1" s="5" t="inlineStr">
+        <is>
+          <t>NumPeoplePerHHUrban</t>
+        </is>
+      </c>
+      <c r="N1" s="5" t="inlineStr">
+        <is>
+          <t>GridCapacityInvestmentCost</t>
+        </is>
+      </c>
+      <c r="O1" s="5" t="inlineStr">
+        <is>
+          <t>GridLosses</t>
+        </is>
+      </c>
+      <c r="P1" s="5" t="inlineStr">
+        <is>
+          <t>BaseToPeak</t>
+        </is>
+      </c>
+      <c r="Q1" s="5" t="inlineStr">
+        <is>
+          <t>ExistingGridCostRatio</t>
+        </is>
+      </c>
+      <c r="R1" s="5" t="inlineStr">
+        <is>
+          <t>MaxGridExtensionDist</t>
+        </is>
+      </c>
+      <c r="S1" s="5" t="inlineStr">
+        <is>
+          <t>NewGridGenerationCapacityAnnualLimitMW</t>
+        </is>
+      </c>
+      <c r="T1" s="5" t="inlineStr">
+        <is>
+          <t>ElecActual</t>
+        </is>
+      </c>
+      <c r="U1" s="5" t="inlineStr">
+        <is>
+          <t>Rural_elec_ratio</t>
+        </is>
+      </c>
+      <c r="V1" s="5" t="inlineStr">
+        <is>
+          <t>Urban_elec_ratio</t>
+        </is>
+      </c>
+      <c r="W1" s="5" t="inlineStr">
+        <is>
+          <t>ElecModelled</t>
+        </is>
+      </c>
+      <c r="X1" s="5" t="inlineStr">
+        <is>
+          <t>urban_elec_ratio_modelled</t>
+        </is>
+      </c>
+      <c r="Y1" s="5" t="inlineStr">
+        <is>
+          <t>rural_elec_ratio_modelled</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Djibouti</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>dj</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2030</v>
+      </c>
+      <c r="E2" t="n">
+        <v>971000</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.778</v>
+      </c>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="n">
+        <v>0.7681776389247169</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1179150</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1132710</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L2" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="M2" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="N2" t="n">
+        <v>4426</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.083</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="R2" t="n">
+        <v>50</v>
+      </c>
+      <c r="S2" t="n">
+        <v>19</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.7023432968565431</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.2608703674038588</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -1984,7 +3111,230 @@
       <c r="F2" t="n">
         <v>0.778</v>
       </c>
-      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="n">
+        <v>0.7681776389247169</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1179150</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1132710</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L2" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="M2" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="N2" t="n">
+        <v>4426</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.083</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="R2" t="n">
+        <v>50</v>
+      </c>
+      <c r="S2" t="n">
+        <v>19</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.7023432968565431</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.2608703674038588</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Y2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="5" t="inlineStr">
+        <is>
+          <t>Country</t>
+        </is>
+      </c>
+      <c r="B1" s="5" t="inlineStr">
+        <is>
+          <t>CountryCode</t>
+        </is>
+      </c>
+      <c r="C1" s="5" t="inlineStr">
+        <is>
+          <t>StartYear</t>
+        </is>
+      </c>
+      <c r="D1" s="5" t="inlineStr">
+        <is>
+          <t>EndYEar</t>
+        </is>
+      </c>
+      <c r="E1" s="5" t="inlineStr">
+        <is>
+          <t>PopStartYear</t>
+        </is>
+      </c>
+      <c r="F1" s="5" t="inlineStr">
+        <is>
+          <t>UrbanRatioStartYear</t>
+        </is>
+      </c>
+      <c r="G1" s="5" t="inlineStr">
+        <is>
+          <t>UrbanCutOff</t>
+        </is>
+      </c>
+      <c r="H1" s="5" t="inlineStr">
+        <is>
+          <t>UrbanRatioModelled</t>
+        </is>
+      </c>
+      <c r="I1" s="5" t="inlineStr">
+        <is>
+          <t>PopEndYearHigh</t>
+        </is>
+      </c>
+      <c r="J1" s="5" t="inlineStr">
+        <is>
+          <t>PopEndYearLow</t>
+        </is>
+      </c>
+      <c r="K1" s="5" t="inlineStr">
+        <is>
+          <t>UrbanRatioEndYear</t>
+        </is>
+      </c>
+      <c r="L1" s="5" t="inlineStr">
+        <is>
+          <t>NumPeoplePerHHRural</t>
+        </is>
+      </c>
+      <c r="M1" s="5" t="inlineStr">
+        <is>
+          <t>NumPeoplePerHHUrban</t>
+        </is>
+      </c>
+      <c r="N1" s="5" t="inlineStr">
+        <is>
+          <t>GridCapacityInvestmentCost</t>
+        </is>
+      </c>
+      <c r="O1" s="5" t="inlineStr">
+        <is>
+          <t>GridLosses</t>
+        </is>
+      </c>
+      <c r="P1" s="5" t="inlineStr">
+        <is>
+          <t>BaseToPeak</t>
+        </is>
+      </c>
+      <c r="Q1" s="5" t="inlineStr">
+        <is>
+          <t>ExistingGridCostRatio</t>
+        </is>
+      </c>
+      <c r="R1" s="5" t="inlineStr">
+        <is>
+          <t>MaxGridExtensionDist</t>
+        </is>
+      </c>
+      <c r="S1" s="5" t="inlineStr">
+        <is>
+          <t>NewGridGenerationCapacityAnnualLimitMW</t>
+        </is>
+      </c>
+      <c r="T1" s="5" t="inlineStr">
+        <is>
+          <t>ElecActual</t>
+        </is>
+      </c>
+      <c r="U1" s="5" t="inlineStr">
+        <is>
+          <t>Rural_elec_ratio</t>
+        </is>
+      </c>
+      <c r="V1" s="5" t="inlineStr">
+        <is>
+          <t>Urban_elec_ratio</t>
+        </is>
+      </c>
+      <c r="W1" s="5" t="inlineStr">
+        <is>
+          <t>ElecModelled</t>
+        </is>
+      </c>
+      <c r="X1" s="5" t="inlineStr">
+        <is>
+          <t>urban_elec_ratio_modelled</t>
+        </is>
+      </c>
+      <c r="Y1" s="5" t="inlineStr">
+        <is>
+          <t>rural_elec_ratio_modelled</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Djibouti</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>dj</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2030</v>
+      </c>
+      <c r="E2" t="n">
+        <v>971000</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.778</v>
+      </c>
       <c r="H2" t="n">
         <v>0.7681776389247169</v>
       </c>

--- a/test_data/dj-specs-test.xlsx
+++ b/test_data/dj-specs-test.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="8616" windowWidth="23040" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="3" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="8616" windowWidth="23040" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="ScenarioInfo" sheetId="1" state="visible" r:id="rId1"/>
@@ -11,9 +11,6 @@
     <sheet name="SpecsData" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="SpecsDataCalib" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="SpecsDataCalib1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="SpecsDataCalib2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="SpecsDataCalib3" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="SpecsDataCalib4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -23,7 +20,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -45,6 +42,11 @@
       <sz val="10"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
       <b val="1"/>
     </font>
   </fonts>
@@ -62,12 +64,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -97,7 +114,7 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -110,6 +127,9 @@
     </xf>
     <xf borderId="0" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="2" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -390,8 +410,8 @@
   </sheetPr>
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
@@ -715,8 +735,8 @@
     <col bestFit="1" customWidth="1" max="28" min="28" style="2" width="12.109375"/>
     <col bestFit="1" customWidth="1" max="29" min="29" style="2" width="12.6640625"/>
     <col bestFit="1" customWidth="1" max="31" min="30" style="2" width="20"/>
-    <col customWidth="1" max="50" min="32" style="2" width="9.109375"/>
-    <col customWidth="1" max="16384" min="51" style="2" width="9.109375"/>
+    <col customWidth="1" max="51" min="32" style="2" width="9.109375"/>
+    <col customWidth="1" max="16384" min="52" style="2" width="9.109375"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -932,11 +952,11 @@
   </sheetPr>
   <dimension ref="A1:Y2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="5" t="inlineStr">
@@ -1163,799 +1183,127 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="5" t="inlineStr">
+      <c r="A1" s="6" t="inlineStr">
         <is>
           <t>Country</t>
         </is>
       </c>
-      <c r="B1" s="5" t="inlineStr">
+      <c r="B1" s="6" t="inlineStr">
         <is>
           <t>CountryCode</t>
         </is>
       </c>
-      <c r="C1" s="5" t="inlineStr">
+      <c r="C1" s="6" t="inlineStr">
         <is>
           <t>StartYear</t>
         </is>
       </c>
-      <c r="D1" s="5" t="inlineStr">
+      <c r="D1" s="6" t="inlineStr">
         <is>
           <t>EndYEar</t>
         </is>
       </c>
-      <c r="E1" s="5" t="inlineStr">
+      <c r="E1" s="6" t="inlineStr">
         <is>
           <t>PopStartYear</t>
         </is>
       </c>
-      <c r="F1" s="5" t="inlineStr">
+      <c r="F1" s="6" t="inlineStr">
         <is>
           <t>UrbanRatioStartYear</t>
         </is>
       </c>
-      <c r="G1" s="5" t="inlineStr">
+      <c r="G1" s="6" t="inlineStr">
         <is>
           <t>UrbanCutOff</t>
         </is>
       </c>
-      <c r="H1" s="5" t="inlineStr">
+      <c r="H1" s="6" t="inlineStr">
         <is>
           <t>UrbanRatioModelled</t>
         </is>
       </c>
-      <c r="I1" s="5" t="inlineStr">
+      <c r="I1" s="6" t="inlineStr">
         <is>
           <t>PopEndYearHigh</t>
         </is>
       </c>
-      <c r="J1" s="5" t="inlineStr">
+      <c r="J1" s="6" t="inlineStr">
         <is>
           <t>PopEndYearLow</t>
         </is>
       </c>
-      <c r="K1" s="5" t="inlineStr">
+      <c r="K1" s="6" t="inlineStr">
         <is>
           <t>UrbanRatioEndYear</t>
         </is>
       </c>
-      <c r="L1" s="5" t="inlineStr">
+      <c r="L1" s="6" t="inlineStr">
         <is>
           <t>NumPeoplePerHHRural</t>
         </is>
       </c>
-      <c r="M1" s="5" t="inlineStr">
+      <c r="M1" s="6" t="inlineStr">
         <is>
           <t>NumPeoplePerHHUrban</t>
         </is>
       </c>
-      <c r="N1" s="5" t="inlineStr">
+      <c r="N1" s="6" t="inlineStr">
         <is>
           <t>GridCapacityInvestmentCost</t>
         </is>
       </c>
-      <c r="O1" s="5" t="inlineStr">
+      <c r="O1" s="6" t="inlineStr">
         <is>
           <t>GridLosses</t>
         </is>
       </c>
-      <c r="P1" s="5" t="inlineStr">
+      <c r="P1" s="6" t="inlineStr">
         <is>
           <t>BaseToPeak</t>
         </is>
       </c>
-      <c r="Q1" s="5" t="inlineStr">
+      <c r="Q1" s="6" t="inlineStr">
         <is>
           <t>ExistingGridCostRatio</t>
         </is>
       </c>
-      <c r="R1" s="5" t="inlineStr">
+      <c r="R1" s="6" t="inlineStr">
         <is>
           <t>MaxGridExtensionDist</t>
         </is>
       </c>
-      <c r="S1" s="5" t="inlineStr">
+      <c r="S1" s="6" t="inlineStr">
         <is>
           <t>NewGridGenerationCapacityAnnualLimitMW</t>
         </is>
       </c>
-      <c r="T1" s="5" t="inlineStr">
+      <c r="T1" s="6" t="inlineStr">
         <is>
           <t>ElecActual</t>
         </is>
       </c>
-      <c r="U1" s="5" t="inlineStr">
+      <c r="U1" s="6" t="inlineStr">
         <is>
           <t>Rural_elec_ratio</t>
         </is>
       </c>
-      <c r="V1" s="5" t="inlineStr">
+      <c r="V1" s="6" t="inlineStr">
         <is>
           <t>Urban_elec_ratio</t>
         </is>
       </c>
-      <c r="W1" s="5" t="inlineStr">
+      <c r="W1" s="6" t="inlineStr">
         <is>
           <t>ElecModelled</t>
         </is>
       </c>
-      <c r="X1" s="5" t="inlineStr">
+      <c r="X1" s="6" t="inlineStr">
         <is>
           <t>urban_elec_ratio_modelled</t>
         </is>
       </c>
-      <c r="Y1" s="5" t="inlineStr">
-        <is>
-          <t>rural_elec_ratio_modelled</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Djibouti</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>dj</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2018</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2030</v>
-      </c>
-      <c r="E2" t="n">
-        <v>971000</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.778</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.7681776389247169</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1179150</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1132710</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="L2" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="M2" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="N2" t="n">
-        <v>4426</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.083</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="R2" t="n">
-        <v>50</v>
-      </c>
-      <c r="S2" t="n">
-        <v>19</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0.7023432968565431</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0.2608703674038588</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:Y2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="5" t="inlineStr">
-        <is>
-          <t>Country</t>
-        </is>
-      </c>
-      <c r="B1" s="5" t="inlineStr">
-        <is>
-          <t>CountryCode</t>
-        </is>
-      </c>
-      <c r="C1" s="5" t="inlineStr">
-        <is>
-          <t>StartYear</t>
-        </is>
-      </c>
-      <c r="D1" s="5" t="inlineStr">
-        <is>
-          <t>EndYEar</t>
-        </is>
-      </c>
-      <c r="E1" s="5" t="inlineStr">
-        <is>
-          <t>PopStartYear</t>
-        </is>
-      </c>
-      <c r="F1" s="5" t="inlineStr">
-        <is>
-          <t>UrbanRatioStartYear</t>
-        </is>
-      </c>
-      <c r="G1" s="5" t="inlineStr">
-        <is>
-          <t>UrbanCutOff</t>
-        </is>
-      </c>
-      <c r="H1" s="5" t="inlineStr">
-        <is>
-          <t>UrbanRatioModelled</t>
-        </is>
-      </c>
-      <c r="I1" s="5" t="inlineStr">
-        <is>
-          <t>PopEndYearHigh</t>
-        </is>
-      </c>
-      <c r="J1" s="5" t="inlineStr">
-        <is>
-          <t>PopEndYearLow</t>
-        </is>
-      </c>
-      <c r="K1" s="5" t="inlineStr">
-        <is>
-          <t>UrbanRatioEndYear</t>
-        </is>
-      </c>
-      <c r="L1" s="5" t="inlineStr">
-        <is>
-          <t>NumPeoplePerHHRural</t>
-        </is>
-      </c>
-      <c r="M1" s="5" t="inlineStr">
-        <is>
-          <t>NumPeoplePerHHUrban</t>
-        </is>
-      </c>
-      <c r="N1" s="5" t="inlineStr">
-        <is>
-          <t>GridCapacityInvestmentCost</t>
-        </is>
-      </c>
-      <c r="O1" s="5" t="inlineStr">
-        <is>
-          <t>GridLosses</t>
-        </is>
-      </c>
-      <c r="P1" s="5" t="inlineStr">
-        <is>
-          <t>BaseToPeak</t>
-        </is>
-      </c>
-      <c r="Q1" s="5" t="inlineStr">
-        <is>
-          <t>ExistingGridCostRatio</t>
-        </is>
-      </c>
-      <c r="R1" s="5" t="inlineStr">
-        <is>
-          <t>MaxGridExtensionDist</t>
-        </is>
-      </c>
-      <c r="S1" s="5" t="inlineStr">
-        <is>
-          <t>NewGridGenerationCapacityAnnualLimitMW</t>
-        </is>
-      </c>
-      <c r="T1" s="5" t="inlineStr">
-        <is>
-          <t>ElecActual</t>
-        </is>
-      </c>
-      <c r="U1" s="5" t="inlineStr">
-        <is>
-          <t>Rural_elec_ratio</t>
-        </is>
-      </c>
-      <c r="V1" s="5" t="inlineStr">
-        <is>
-          <t>Urban_elec_ratio</t>
-        </is>
-      </c>
-      <c r="W1" s="5" t="inlineStr">
-        <is>
-          <t>ElecModelled</t>
-        </is>
-      </c>
-      <c r="X1" s="5" t="inlineStr">
-        <is>
-          <t>urban_elec_ratio_modelled</t>
-        </is>
-      </c>
-      <c r="Y1" s="5" t="inlineStr">
-        <is>
-          <t>rural_elec_ratio_modelled</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Djibouti</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>dj</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2018</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2030</v>
-      </c>
-      <c r="E2" t="n">
-        <v>971000</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.778</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.7681776389247169</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1179150</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1132710</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="L2" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="M2" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="N2" t="n">
-        <v>4426</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.083</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="R2" t="n">
-        <v>50</v>
-      </c>
-      <c r="S2" t="n">
-        <v>19</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0.7023432968565431</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0.2608703674038588</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:Y2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="5" t="inlineStr">
-        <is>
-          <t>Country</t>
-        </is>
-      </c>
-      <c r="B1" s="5" t="inlineStr">
-        <is>
-          <t>CountryCode</t>
-        </is>
-      </c>
-      <c r="C1" s="5" t="inlineStr">
-        <is>
-          <t>StartYear</t>
-        </is>
-      </c>
-      <c r="D1" s="5" t="inlineStr">
-        <is>
-          <t>EndYEar</t>
-        </is>
-      </c>
-      <c r="E1" s="5" t="inlineStr">
-        <is>
-          <t>PopStartYear</t>
-        </is>
-      </c>
-      <c r="F1" s="5" t="inlineStr">
-        <is>
-          <t>UrbanRatioStartYear</t>
-        </is>
-      </c>
-      <c r="G1" s="5" t="inlineStr">
-        <is>
-          <t>UrbanCutOff</t>
-        </is>
-      </c>
-      <c r="H1" s="5" t="inlineStr">
-        <is>
-          <t>UrbanRatioModelled</t>
-        </is>
-      </c>
-      <c r="I1" s="5" t="inlineStr">
-        <is>
-          <t>PopEndYearHigh</t>
-        </is>
-      </c>
-      <c r="J1" s="5" t="inlineStr">
-        <is>
-          <t>PopEndYearLow</t>
-        </is>
-      </c>
-      <c r="K1" s="5" t="inlineStr">
-        <is>
-          <t>UrbanRatioEndYear</t>
-        </is>
-      </c>
-      <c r="L1" s="5" t="inlineStr">
-        <is>
-          <t>NumPeoplePerHHRural</t>
-        </is>
-      </c>
-      <c r="M1" s="5" t="inlineStr">
-        <is>
-          <t>NumPeoplePerHHUrban</t>
-        </is>
-      </c>
-      <c r="N1" s="5" t="inlineStr">
-        <is>
-          <t>GridCapacityInvestmentCost</t>
-        </is>
-      </c>
-      <c r="O1" s="5" t="inlineStr">
-        <is>
-          <t>GridLosses</t>
-        </is>
-      </c>
-      <c r="P1" s="5" t="inlineStr">
-        <is>
-          <t>BaseToPeak</t>
-        </is>
-      </c>
-      <c r="Q1" s="5" t="inlineStr">
-        <is>
-          <t>ExistingGridCostRatio</t>
-        </is>
-      </c>
-      <c r="R1" s="5" t="inlineStr">
-        <is>
-          <t>MaxGridExtensionDist</t>
-        </is>
-      </c>
-      <c r="S1" s="5" t="inlineStr">
-        <is>
-          <t>NewGridGenerationCapacityAnnualLimitMW</t>
-        </is>
-      </c>
-      <c r="T1" s="5" t="inlineStr">
-        <is>
-          <t>ElecActual</t>
-        </is>
-      </c>
-      <c r="U1" s="5" t="inlineStr">
-        <is>
-          <t>Rural_elec_ratio</t>
-        </is>
-      </c>
-      <c r="V1" s="5" t="inlineStr">
-        <is>
-          <t>Urban_elec_ratio</t>
-        </is>
-      </c>
-      <c r="W1" s="5" t="inlineStr">
-        <is>
-          <t>ElecModelled</t>
-        </is>
-      </c>
-      <c r="X1" s="5" t="inlineStr">
-        <is>
-          <t>urban_elec_ratio_modelled</t>
-        </is>
-      </c>
-      <c r="Y1" s="5" t="inlineStr">
-        <is>
-          <t>rural_elec_ratio_modelled</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Djibouti</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>dj</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2018</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2030</v>
-      </c>
-      <c r="E2" t="n">
-        <v>971000</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.778</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.7681776389247169</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1179150</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1132710</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="L2" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="M2" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="N2" t="n">
-        <v>4426</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.083</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="R2" t="n">
-        <v>50</v>
-      </c>
-      <c r="S2" t="n">
-        <v>19</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0.7023432968565431</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0.2608703674038588</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:Y2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="5" t="inlineStr">
-        <is>
-          <t>Country</t>
-        </is>
-      </c>
-      <c r="B1" s="5" t="inlineStr">
-        <is>
-          <t>CountryCode</t>
-        </is>
-      </c>
-      <c r="C1" s="5" t="inlineStr">
-        <is>
-          <t>StartYear</t>
-        </is>
-      </c>
-      <c r="D1" s="5" t="inlineStr">
-        <is>
-          <t>EndYEar</t>
-        </is>
-      </c>
-      <c r="E1" s="5" t="inlineStr">
-        <is>
-          <t>PopStartYear</t>
-        </is>
-      </c>
-      <c r="F1" s="5" t="inlineStr">
-        <is>
-          <t>UrbanRatioStartYear</t>
-        </is>
-      </c>
-      <c r="G1" s="5" t="inlineStr">
-        <is>
-          <t>UrbanCutOff</t>
-        </is>
-      </c>
-      <c r="H1" s="5" t="inlineStr">
-        <is>
-          <t>UrbanRatioModelled</t>
-        </is>
-      </c>
-      <c r="I1" s="5" t="inlineStr">
-        <is>
-          <t>PopEndYearHigh</t>
-        </is>
-      </c>
-      <c r="J1" s="5" t="inlineStr">
-        <is>
-          <t>PopEndYearLow</t>
-        </is>
-      </c>
-      <c r="K1" s="5" t="inlineStr">
-        <is>
-          <t>UrbanRatioEndYear</t>
-        </is>
-      </c>
-      <c r="L1" s="5" t="inlineStr">
-        <is>
-          <t>NumPeoplePerHHRural</t>
-        </is>
-      </c>
-      <c r="M1" s="5" t="inlineStr">
-        <is>
-          <t>NumPeoplePerHHUrban</t>
-        </is>
-      </c>
-      <c r="N1" s="5" t="inlineStr">
-        <is>
-          <t>GridCapacityInvestmentCost</t>
-        </is>
-      </c>
-      <c r="O1" s="5" t="inlineStr">
-        <is>
-          <t>GridLosses</t>
-        </is>
-      </c>
-      <c r="P1" s="5" t="inlineStr">
-        <is>
-          <t>BaseToPeak</t>
-        </is>
-      </c>
-      <c r="Q1" s="5" t="inlineStr">
-        <is>
-          <t>ExistingGridCostRatio</t>
-        </is>
-      </c>
-      <c r="R1" s="5" t="inlineStr">
-        <is>
-          <t>MaxGridExtensionDist</t>
-        </is>
-      </c>
-      <c r="S1" s="5" t="inlineStr">
-        <is>
-          <t>NewGridGenerationCapacityAnnualLimitMW</t>
-        </is>
-      </c>
-      <c r="T1" s="5" t="inlineStr">
-        <is>
-          <t>ElecActual</t>
-        </is>
-      </c>
-      <c r="U1" s="5" t="inlineStr">
-        <is>
-          <t>Rural_elec_ratio</t>
-        </is>
-      </c>
-      <c r="V1" s="5" t="inlineStr">
-        <is>
-          <t>Urban_elec_ratio</t>
-        </is>
-      </c>
-      <c r="W1" s="5" t="inlineStr">
-        <is>
-          <t>ElecModelled</t>
-        </is>
-      </c>
-      <c r="X1" s="5" t="inlineStr">
-        <is>
-          <t>urban_elec_ratio_modelled</t>
-        </is>
-      </c>
-      <c r="Y1" s="5" t="inlineStr">
+      <c r="Y1" s="6" t="inlineStr">
         <is>
           <t>rural_elec_ratio_modelled</t>
         </is>
